--- a/public/assets/users-data-template.xlsx
+++ b/public/assets/users-data-template.xlsx
@@ -120,7 +120,7 @@
     <t>plan_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Ye Pyae Aung</t>
+    <t>name</t>
   </si>
   <si>
     <t>phone</t>
@@ -700,7 +700,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="yepyae" id="{49924F35-1ACA-DB9F-25B1-A9BFFE5CCAE4}" userId="yepyae" providerId="Teamlab"/>
+  <person displayName="yepyae" id="{9D8024E3-FE70-FDE5-D3DD-62D7F6C1C6B6}" userId="yepyae" providerId="Teamlab"/>
 </personList>
 </file>
 
@@ -1196,13 +1196,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B1" dT="2024-08-20T09:17:29.24Z" personId="{49924F35-1ACA-DB9F-25B1-A9BFFE5CCAE4}" id="{8D1E6A43-848C-A873-4856-7896941034D3}" done="0">
+  <threadedComment ref="B1" dT="2024-08-20T09:17:29.24Z" personId="{9D8024E3-FE70-FDE5-D3DD-62D7F6C1C6B6}" id="{8D1E6A43-848C-A873-4856-7896941034D3}" done="0">
     <text xml:space="preserve">active - 1
 inactive - 2
 terminate - 3
 </text>
   </threadedComment>
-  <threadedComment ref="C1" dT="2024-08-20T09:20:30.89Z" personId="{49924F35-1ACA-DB9F-25B1-A9BFFE5CCAE4}" id="{E7C4D0D4-A1C7-C024-44D1-2A3C5D0685F7}" done="0">
+  <threadedComment ref="C1" dT="2024-08-20T09:20:30.89Z" personId="{9D8024E3-FE70-FDE5-D3DD-62D7F6C1C6B6}" id="{E7C4D0D4-A1C7-C024-44D1-2A3C5D0685F7}" done="0">
     <text xml:space="preserve">10 - 1
 15 - 2
 20 - 3
@@ -1210,7 +1210,7 @@
 50 - 5
 </text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2024-08-20T09:31:29.36Z" personId="{49924F35-1ACA-DB9F-25B1-A9BFFE5CCAE4}" id="{D62C123A-37B2-9E4C-ACA6-CE3831D42C31}" done="0">
+  <threadedComment ref="F1" dT="2024-08-20T09:31:29.36Z" personId="{9D8024E3-FE70-FDE5-D3DD-62D7F6C1C6B6}" id="{D62C123A-37B2-9E4C-ACA6-CE3831D42C31}" done="0">
     <text xml:space="preserve">Bahan - 1
 Tarmwe - 2
 Yankin - 3
@@ -3254,7 +3254,7 @@
       <c r="J151" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="IgrGLh+UqwzVkm0Ty2VVms/I/spv46o0LkaHExpdWOdm2yxTB4/BsGmZ/A7A0reJC/ru2rFWtoOv5hZ8q+FNqA==" saltValue="HI+6z5OQEC2GhkB+w22G+g==" spinCount="100000" autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eOcenq2ftbTvZ7/oI+XEfdx1rGBZrYSC86aj3WTVZSXblfUis6Fkwo5IRqM3kpA+R5GbFBR7pi3obx8NA9f2pw==" saltValue="RTeFsU3TwGG+0HHJJKiP7Q==" spinCount="100000" autoFilter="1" deleteColumns="1" deleteRows="1" formatCells="1" formatColumns="1" formatRows="1" insertColumns="1" insertHyperlinks="1" insertRows="1" objects="1" pivotTables="1" scenarios="1" selectLockedCells="0" selectUnlockedCells="0" sheet="1" sort="1"/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
